--- a/03_Namenskonvention.xlsx
+++ b/03_Namenskonvention.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karma\Projects\yihaaaaa.biz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b93973508f151b4/Dokumente/GitHub/yihaaaaa.biz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFE22AD-4826-4373-8A19-8BB82AD1EB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9DFE22AD-4826-4373-8A19-8BB82AD1EB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B19EADC-3245-4F6A-8336-D3AA53127F26}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="270" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Namenskonvention" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Gerät</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>SW</t>
+  </si>
+  <si>
+    <t>USED: NB for Notebooks.</t>
   </si>
 </sst>
 </file>
@@ -419,78 +422,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
